--- a/REGULAR/OJT/MAWAK, NEIZER.xlsx
+++ b/REGULAR/OJT/MAWAK, NEIZER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khym Espino\OneDrive\Documents\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,11 +217,26 @@
   <si>
     <t>SL(1-0-0)</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>PL(7-0-0)</t>
+  </si>
+  <si>
+    <t>1/8,9,10,11,12,15,16/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -591,6 +606,15 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,15 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,7 +1099,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1127,7 +1142,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1206,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1266,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1332,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1395,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1493,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1552,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1617,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1645,7 +1660,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1735,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1921,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1987,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2045,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2111,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2167,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2242,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2285,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2351,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2407,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2505,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2568,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2634,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K159" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K161" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2997,12 +3012,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K159"/>
+  <dimension ref="A2:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A8" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A127" activePane="bottomLeft"/>
+      <selection activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,60 +3039,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3103,18 +3118,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3161,7 +3176,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>93</v>
+        <v>107.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3171,13 +3186,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134</v>
+        <v>156.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="20"/>
@@ -3241,7 +3256,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
-        <f t="shared" ref="A13:A21" si="0">EDATE(A12,1)</f>
+        <f t="shared" ref="A13:A16" si="0">EDATE(A12,1)</f>
         <v>41518</v>
       </c>
       <c r="B13" s="20"/>
@@ -3324,7 +3339,7 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="20"/>
@@ -3598,7 +3613,7 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="20"/>
@@ -3872,7 +3887,7 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="20"/>
@@ -4146,7 +4161,7 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B56" s="20"/>
@@ -4207,7 +4222,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <f t="shared" ref="A59:A76" si="4">EDATE(A58,1)</f>
+        <f t="shared" ref="A59:A68" si="4">EDATE(A58,1)</f>
         <v>42795</v>
       </c>
       <c r="B59" s="20"/>
@@ -4420,7 +4435,7 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B69" s="20"/>
@@ -4694,7 +4709,7 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="60" t="s">
+      <c r="A82" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B82" s="20"/>
@@ -4755,7 +4770,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <f t="shared" ref="A85:A96" si="6">EDATE(A84,1)</f>
+        <f t="shared" ref="A85:A94" si="6">EDATE(A84,1)</f>
         <v>43525</v>
       </c>
       <c r="B85" s="20"/>
@@ -4968,7 +4983,7 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="60" t="s">
+      <c r="A95" s="48" t="s">
         <v>52</v>
       </c>
       <c r="B95" s="20"/>
@@ -5242,7 +5257,7 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="60" t="s">
+      <c r="A108" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B108" s="20"/>
@@ -5516,7 +5531,7 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="60" t="s">
+      <c r="A121" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B121" s="20"/>
@@ -5583,7 +5598,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <f t="shared" ref="A124:A133" si="9">EDATE(A123,1)</f>
+        <f t="shared" ref="A124:A152" si="9">EDATE(A123,1)</f>
         <v>44621</v>
       </c>
       <c r="B124" s="20"/>
@@ -5667,273 +5682,440 @@
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="62">
+      <c r="K127" s="50">
         <v>45092</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <f t="shared" si="9"/>
+        <v>44743</v>
+      </c>
       <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D128" s="39"/>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13"/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <f t="shared" si="9"/>
+        <v>44774</v>
+      </c>
       <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D129" s="39"/>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13"/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <f t="shared" si="9"/>
+        <v>44805</v>
+      </c>
       <c r="B130" s="15"/>
-      <c r="C130" s="13"/>
+      <c r="C130" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D130" s="43"/>
       <c r="E130" s="9"/>
       <c r="F130" s="15"/>
-      <c r="G130" s="42"/>
+      <c r="G130" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H130" s="43"/>
       <c r="I130" s="9"/>
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <f t="shared" si="9"/>
+        <v>44835</v>
+      </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="42"/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <f t="shared" si="9"/>
+        <v>44866</v>
+      </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="42"/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
+      <c r="A133" s="40">
+        <f t="shared" si="9"/>
+        <v>44896</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D133" s="39">
+        <v>3</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="42"/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H133" s="39"/>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="48" t="s">
+        <v>58</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="13"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
+      <c r="A135" s="40">
+        <f>EDATE(A133,1)</f>
+        <v>44927</v>
+      </c>
       <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D135" s="39"/>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13"/>
+      <c r="G135" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
+      <c r="A136" s="40">
+        <f t="shared" si="9"/>
+        <v>44958</v>
+      </c>
       <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D136" s="39"/>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13"/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+      <c r="A137" s="40">
+        <f t="shared" si="9"/>
+        <v>44986</v>
+      </c>
       <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
+      <c r="C137" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D137" s="39"/>
       <c r="E137" s="9"/>
       <c r="F137" s="20"/>
-      <c r="G137" s="13"/>
+      <c r="G137" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H137" s="39"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+      <c r="A138" s="40">
+        <f t="shared" si="9"/>
+        <v>45017</v>
+      </c>
       <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
+      <c r="C138" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D138" s="39"/>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
-      <c r="G138" s="13"/>
+      <c r="G138" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="40">
+        <f t="shared" si="9"/>
+        <v>45047</v>
+      </c>
       <c r="B139" s="20"/>
-      <c r="C139" s="13"/>
+      <c r="C139" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D139" s="39"/>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
-      <c r="G139" s="13"/>
+      <c r="G139" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+      <c r="A140" s="40">
+        <f t="shared" si="9"/>
+        <v>45078</v>
+      </c>
       <c r="B140" s="20"/>
-      <c r="C140" s="13"/>
+      <c r="C140" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D140" s="39"/>
       <c r="E140" s="9"/>
       <c r="F140" s="20"/>
-      <c r="G140" s="13"/>
+      <c r="G140" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
+      <c r="A141" s="40">
+        <f t="shared" si="9"/>
+        <v>45108</v>
+      </c>
       <c r="B141" s="20"/>
-      <c r="C141" s="13"/>
+      <c r="C141" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D141" s="39"/>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="13"/>
+      <c r="G141" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H141" s="39"/>
       <c r="I141" s="9"/>
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
+      <c r="A142" s="40">
+        <f t="shared" si="9"/>
+        <v>45139</v>
+      </c>
       <c r="B142" s="20"/>
-      <c r="C142" s="13"/>
+      <c r="C142" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D142" s="39"/>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13"/>
+      <c r="G142" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
+      <c r="A143" s="40">
+        <f t="shared" si="9"/>
+        <v>45170</v>
+      </c>
       <c r="B143" s="20"/>
-      <c r="C143" s="13"/>
+      <c r="C143" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D143" s="39"/>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="13"/>
+      <c r="G143" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H143" s="39"/>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
+      <c r="A144" s="40">
+        <f t="shared" si="9"/>
+        <v>45200</v>
+      </c>
       <c r="B144" s="20"/>
-      <c r="C144" s="13"/>
+      <c r="C144" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D144" s="39"/>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="13"/>
+      <c r="G144" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H144" s="39"/>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
+      <c r="A145" s="40">
+        <f t="shared" si="9"/>
+        <v>45231</v>
+      </c>
       <c r="B145" s="20"/>
-      <c r="C145" s="13"/>
+      <c r="C145" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D145" s="39"/>
       <c r="E145" s="9"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="13"/>
+      <c r="G145" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="39"/>
+      <c r="A146" s="40">
+        <f t="shared" si="9"/>
+        <v>45261</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C146" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D146" s="39">
+        <v>5</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="13"/>
+      <c r="G146" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
+      <c r="A147" s="48" t="s">
+        <v>59</v>
+      </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
       <c r="D147" s="39"/>
       <c r="E147" s="9"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="13"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H147" s="39"/>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
-      <c r="B148" s="20"/>
+      <c r="A148" s="40">
+        <f>EDATE(A146,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C148" s="13"/>
       <c r="D148" s="39"/>
       <c r="E148" s="9"/>
@@ -5942,10 +6124,15 @@
       <c r="H148" s="39"/>
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="20"/>
+      <c r="K148" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
+      <c r="A149" s="40">
+        <f t="shared" si="9"/>
+        <v>45323</v>
+      </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
       <c r="D149" s="39"/>
@@ -5958,7 +6145,10 @@
       <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
+      <c r="A150" s="40">
+        <f t="shared" si="9"/>
+        <v>45352</v>
+      </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
       <c r="D150" s="39"/>
@@ -5971,7 +6161,10 @@
       <c r="K150" s="20"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
+      <c r="A151" s="40">
+        <f t="shared" si="9"/>
+        <v>45383</v>
+      </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
       <c r="D151" s="39"/>
@@ -5984,7 +6177,10 @@
       <c r="K151" s="20"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
+      <c r="A152" s="40">
+        <f t="shared" si="9"/>
+        <v>45413</v>
+      </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
@@ -6075,17 +6271,43 @@
       <c r="K158" s="20"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="41"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="43"/>
-      <c r="E159" s="61"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="42"/>
-      <c r="H159" s="43"/>
-      <c r="I159" s="61"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="15"/>
+      <c r="A159" s="40"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="39"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="40"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="39"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="49"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="42"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="49"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6151,17 +6373,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -6236,12 +6458,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
